--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H2">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I2">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J2">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>5.656124566253334</v>
+        <v>26.59458242786956</v>
       </c>
       <c r="R2">
-        <v>50.90512109628</v>
+        <v>239.351241850826</v>
       </c>
       <c r="S2">
-        <v>0.01315882056104484</v>
+        <v>0.04179842773614757</v>
       </c>
       <c r="T2">
-        <v>0.01315882056104484</v>
+        <v>0.04179842773614757</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H3">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I3">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J3">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>9.317979784825557</v>
+        <v>25.78720613458345</v>
       </c>
       <c r="R3">
-        <v>83.86181806343001</v>
+        <v>232.084855211251</v>
       </c>
       <c r="S3">
-        <v>0.02167802751578773</v>
+        <v>0.04052948283948196</v>
       </c>
       <c r="T3">
-        <v>0.02167802751578774</v>
+        <v>0.04052948283948195</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H4">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I4">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J4">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>8.24711396678889</v>
+        <v>26.25978912776333</v>
       </c>
       <c r="R4">
-        <v>74.2240257011</v>
+        <v>236.33810214987</v>
       </c>
       <c r="S4">
-        <v>0.01918668720327492</v>
+        <v>0.04127223659932523</v>
       </c>
       <c r="T4">
-        <v>0.01918668720327492</v>
+        <v>0.04127223659932522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H5">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I5">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J5">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>3.73825944408889</v>
+        <v>10.47691484248656</v>
       </c>
       <c r="R5">
-        <v>33.6443349968</v>
+        <v>94.29223358237901</v>
       </c>
       <c r="S5">
-        <v>0.00869695931537476</v>
+        <v>0.01646645775052792</v>
       </c>
       <c r="T5">
-        <v>0.008696959315374762</v>
+        <v>0.01646645775052792</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.381805</v>
       </c>
       <c r="I6">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J6">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>78.55726731893999</v>
+        <v>133.46827576389</v>
       </c>
       <c r="R6">
-        <v>707.01540587046</v>
+        <v>1201.21448187501</v>
       </c>
       <c r="S6">
-        <v>0.1827613540521279</v>
+        <v>0.2097706965212192</v>
       </c>
       <c r="T6">
-        <v>0.1827613540521279</v>
+        <v>0.2097706965212192</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.381805</v>
       </c>
       <c r="I7">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J7">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>129.416355714015</v>
@@ -883,10 +883,10 @@
         <v>1164.747201426135</v>
       </c>
       <c r="S7">
-        <v>0.3010836452693498</v>
+        <v>0.2034023360531915</v>
       </c>
       <c r="T7">
-        <v>0.3010836452693499</v>
+        <v>0.2034023360531915</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.381805</v>
       </c>
       <c r="I8">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J8">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>114.54322282155</v>
+        <v>131.78807324055</v>
       </c>
       <c r="R8">
-        <v>1030.88900539395</v>
+        <v>1186.09265916495</v>
       </c>
       <c r="S8">
-        <v>0.2664817045553456</v>
+        <v>0.2071299397451202</v>
       </c>
       <c r="T8">
-        <v>0.2664817045553456</v>
+        <v>0.2071299397451201</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.381805</v>
       </c>
       <c r="I9">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J9">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>51.92025794640001</v>
+        <v>52.57972232293501</v>
       </c>
       <c r="R9">
-        <v>467.2823215176001</v>
+        <v>473.217500906415</v>
       </c>
       <c r="S9">
-        <v>0.1207910734279327</v>
+        <v>0.08263900100190301</v>
       </c>
       <c r="T9">
-        <v>0.1207910734279327</v>
+        <v>0.082639001001903</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H10">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I10">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J10">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>5.577198062742667</v>
+        <v>20.17144214511755</v>
       </c>
       <c r="R10">
-        <v>50.194782564684</v>
+        <v>181.542979306058</v>
       </c>
       <c r="S10">
-        <v>0.01297520018899644</v>
+        <v>0.03170324516744517</v>
       </c>
       <c r="T10">
-        <v>0.01297520018899644</v>
+        <v>0.03170324516744516</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H11">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I11">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J11">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>9.187955144175445</v>
+        <v>19.55906388223145</v>
       </c>
       <c r="R11">
-        <v>82.691596297579</v>
+        <v>176.031574940083</v>
       </c>
       <c r="S11">
-        <v>0.02137552871209492</v>
+        <v>0.03074077664071211</v>
       </c>
       <c r="T11">
-        <v>0.02137552871209493</v>
+        <v>0.0307407766407121</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H12">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I12">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J12">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>8.132032365981111</v>
+        <v>19.91750833352333</v>
       </c>
       <c r="R12">
-        <v>73.18829129383001</v>
+        <v>179.25757500171</v>
       </c>
       <c r="S12">
-        <v>0.01891895297692098</v>
+        <v>0.03130414004509654</v>
       </c>
       <c r="T12">
-        <v>0.01891895297692098</v>
+        <v>0.03130414004509653</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H13">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I13">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J13">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>3.686095149671112</v>
+        <v>7.946523777078556</v>
       </c>
       <c r="R13">
-        <v>33.17485634704001</v>
+        <v>71.518713993707</v>
       </c>
       <c r="S13">
-        <v>0.008575600497707886</v>
+        <v>0.01248946851302018</v>
       </c>
       <c r="T13">
-        <v>0.00857560049770789</v>
+        <v>0.01248946851302017</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H14">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I14">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J14">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>0.389256412216</v>
+        <v>9.636671705446888</v>
       </c>
       <c r="R14">
-        <v>3.503307709944</v>
+        <v>86.73004534902199</v>
       </c>
       <c r="S14">
-        <v>0.0009055944968304346</v>
+        <v>0.01514585637844012</v>
       </c>
       <c r="T14">
-        <v>0.0009055944968304349</v>
+        <v>0.01514585637844012</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H15">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I15">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J15">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>0.6412665311126666</v>
+        <v>9.34411511794411</v>
       </c>
       <c r="R15">
-        <v>5.771398780014</v>
+        <v>84.09703606149699</v>
       </c>
       <c r="S15">
-        <v>0.001491889210690576</v>
+        <v>0.01468604824215391</v>
       </c>
       <c r="T15">
-        <v>0.001491889210690576</v>
+        <v>0.01468604824215391</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H16">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I16">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J16">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>0.5675691820866666</v>
+        <v>9.515357782543331</v>
       </c>
       <c r="R16">
-        <v>5.10812263878</v>
+        <v>85.63822004289</v>
       </c>
       <c r="S16">
-        <v>0.001320434324876381</v>
+        <v>0.01495518855150109</v>
       </c>
       <c r="T16">
-        <v>0.001320434324876381</v>
+        <v>0.01495518855150109</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H17">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I17">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J17">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>0.2572682836266667</v>
+        <v>3.796359243345889</v>
       </c>
       <c r="R17">
-        <v>2.315414552640001</v>
+        <v>34.167233190113</v>
       </c>
       <c r="S17">
-        <v>0.000598527691644136</v>
+        <v>0.005966698214714581</v>
       </c>
       <c r="T17">
-        <v>0.0005985276916441363</v>
+        <v>0.005966698214714579</v>
       </c>
     </row>
   </sheetData>
